--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
@@ -546,10 +546,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J2">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>4.837743737261778</v>
+        <v>4.712794644412445</v>
       </c>
       <c r="R2">
-        <v>43.539693635356</v>
+        <v>42.415151799712</v>
       </c>
       <c r="S2">
-        <v>0.08454393341791266</v>
+        <v>0.182387645985773</v>
       </c>
       <c r="T2">
-        <v>0.08454393341791265</v>
+        <v>0.182387645985773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J3">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
         <v>5.099161105848999</v>
@@ -638,10 +638,10 @@
         <v>45.89244995264099</v>
       </c>
       <c r="S3">
-        <v>0.08911243762244368</v>
+        <v>0.1973402324458714</v>
       </c>
       <c r="T3">
-        <v>0.08911243762244367</v>
+        <v>0.1973402324458714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J4">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>3.294512418771444</v>
+        <v>2.198181498351889</v>
       </c>
       <c r="R4">
-        <v>29.650611768943</v>
+        <v>19.783633485167</v>
       </c>
       <c r="S4">
-        <v>0.0575745747819936</v>
+        <v>0.08507078690755557</v>
       </c>
       <c r="T4">
-        <v>0.0575745747819936</v>
+        <v>0.08507078690755558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J5">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1.765170347954444</v>
+        <v>1.726171325088111</v>
       </c>
       <c r="R5">
-        <v>15.88653313159</v>
+        <v>15.535541925793</v>
       </c>
       <c r="S5">
-        <v>0.03084794327142322</v>
+        <v>0.06680374349097358</v>
       </c>
       <c r="T5">
-        <v>0.03084794327142322</v>
+        <v>0.06680374349097358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.08865099999999999</v>
       </c>
       <c r="I6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="J6">
-        <v>0.3069856187603669</v>
+        <v>0.6113651253405055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>2.569637363944111</v>
+        <v>2.061023931538667</v>
       </c>
       <c r="R6">
-        <v>23.126736275497</v>
+        <v>18.549215383848</v>
       </c>
       <c r="S6">
-        <v>0.04490672966659374</v>
+        <v>0.0797627165103319</v>
       </c>
       <c r="T6">
-        <v>0.04490672966659374</v>
+        <v>0.07976271651033191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H7">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J7">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>10.92111740026311</v>
+        <v>2.995846966094223</v>
       </c>
       <c r="R7">
-        <v>98.290056602368</v>
+        <v>26.962622694848</v>
       </c>
       <c r="S7">
-        <v>0.1908563728221907</v>
+        <v>0.1159408625044529</v>
       </c>
       <c r="T7">
-        <v>0.1908563728221907</v>
+        <v>0.1159408625044529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H8">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J8">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>11.511262295872</v>
+        <v>3.241453846646</v>
       </c>
       <c r="R8">
-        <v>103.601360662848</v>
+        <v>29.173084619814</v>
       </c>
       <c r="S8">
-        <v>0.2011696869353353</v>
+        <v>0.1254459787171565</v>
       </c>
       <c r="T8">
-        <v>0.2011696869353353</v>
+        <v>0.1254459787171565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H9">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J9">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>7.437301117233777</v>
+        <v>1.397348255046444</v>
       </c>
       <c r="R9">
-        <v>66.935710055104</v>
+        <v>12.576134295418</v>
       </c>
       <c r="S9">
-        <v>0.1299735423398587</v>
+        <v>0.05407811672049257</v>
       </c>
       <c r="T9">
-        <v>0.1299735423398587</v>
+        <v>0.05407811672049258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H10">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J10">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>3.984839555057777</v>
+        <v>1.097299058713556</v>
       </c>
       <c r="R10">
-        <v>35.86355599552</v>
+        <v>9.875691528421999</v>
       </c>
       <c r="S10">
-        <v>0.06963866387320376</v>
+        <v>0.04246605408501117</v>
       </c>
       <c r="T10">
-        <v>0.06963866387320375</v>
+        <v>0.04246605408501117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.06670933333333333</v>
+        <v>0.01878466666666667</v>
       </c>
       <c r="H11">
-        <v>0.200128</v>
+        <v>0.056354</v>
       </c>
       <c r="I11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="J11">
-        <v>0.6930143812396331</v>
+        <v>0.3886348746594945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>5.800909029468444</v>
+        <v>1.310159418821333</v>
       </c>
       <c r="R11">
-        <v>52.208181265216</v>
+        <v>11.791434769392</v>
       </c>
       <c r="S11">
-        <v>0.1013761152690446</v>
+        <v>0.05070386263238141</v>
       </c>
       <c r="T11">
-        <v>0.1013761152690446</v>
+        <v>0.05070386263238142</v>
       </c>
     </row>
   </sheetData>
